--- a/Кодировка_2431_по_разрядам.xlsx
+++ b/Кодировка_2431_по_разрядам.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9876" windowHeight="6576"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9876" windowHeight="6576" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="старая версия" sheetId="1" r:id="rId1"/>
+    <sheet name="новая версия" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Обычный двоичный код</t>
   </si>
@@ -125,10 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F11" sqref="B2:F11"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,4 +674,363 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="B1:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1010</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1011</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1100</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1101</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1110</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1111</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>